--- a/InputData/elec/GBSC/Grid Battery Storage Capacities.xlsx
+++ b/InputData/elec/GBSC/Grid Battery Storage Capacities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\United States\US-EPS\InputData\elec\GBSC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\Canada\canada-eps\InputData\elec\GBSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="421" documentId="13_ncr:1_{4F835375-DD6C-4A65-B963-527F04236A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71F7BBA7-D59F-4211-9D23-516798DF7ECB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D785F4D-E7D3-4C9F-AC33-5A3F1375A0F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1290" yWindow="900" windowWidth="20265" windowHeight="15810" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
   <definedNames>
     <definedName name="gigwatts_to_megawatts">About!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191028" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -606,7 +606,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1241,7 +1241,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="57" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="57">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1326,7 +1326,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1652,28 +1652,28 @@
       <selection activeCell="A20" sqref="A20:XFD22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="2" max="2" width="67.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1681,119 +1681,119 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>2021</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="24" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" s="25" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="25"/>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>2021</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" s="37" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" s="26" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>2021</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" s="26" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <v>2019</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>20</v>
       </c>
@@ -1801,17 +1801,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B34" s="27" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>24</v>
       </c>
@@ -1836,13 +1836,13 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.42578125" customWidth="1"/>
     <col min="2" max="9" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -1967,125 +1967,125 @@
         <v>393.88113212701137</v>
       </c>
       <c r="G2">
-        <f>F2*(1+($M$6/100))</f>
+        <f t="shared" ref="G2:AG2" si="0">F2*(1+($M$6/100))</f>
         <v>427.53472993707538</v>
       </c>
       <c r="H2">
-        <f>G2*(1+($M$6/100))</f>
+        <f t="shared" si="0"/>
         <v>464.06372479762911</v>
       </c>
       <c r="I2">
-        <f>H2*(1+($M$6/100))</f>
+        <f t="shared" si="0"/>
         <v>503.71379350806336</v>
       </c>
       <c r="J2">
-        <f>I2*(1+($M$6/100))</f>
+        <f t="shared" si="0"/>
         <v>546.75160373918584</v>
       </c>
       <c r="K2">
-        <f>J2*(1+($M$6/100))</f>
+        <f t="shared" si="0"/>
         <v>593.46660751426566</v>
       </c>
       <c r="L2">
-        <f>K2*(1+($M$6/100))</f>
+        <f t="shared" si="0"/>
         <v>644.17298792689212</v>
       </c>
       <c r="M2">
-        <f>L2*(1+($M$6/100))</f>
+        <f t="shared" si="0"/>
         <v>699.21177218835373</v>
       </c>
       <c r="N2">
-        <f>M2*(1+($M$6/100))</f>
+        <f t="shared" si="0"/>
         <v>758.95312521589892</v>
       </c>
       <c r="O2">
-        <f>N2*(1+($M$6/100))</f>
+        <f t="shared" si="0"/>
         <v>823.79883918747066</v>
       </c>
       <c r="P2">
-        <f>O2*(1+($M$6/100))</f>
+        <f t="shared" si="0"/>
         <v>894.18503580648746</v>
       </c>
       <c r="Q2">
-        <f>P2*(1+($M$6/100))</f>
+        <f t="shared" si="0"/>
         <v>970.5850994508296</v>
       </c>
       <c r="R2">
-        <f>Q2*(1+($M$6/100))</f>
+        <f t="shared" si="0"/>
         <v>1053.5128609330081</v>
       </c>
       <c r="S2">
-        <f>R2*(1+($M$6/100))</f>
+        <f t="shared" si="0"/>
         <v>1143.5260532839854</v>
       </c>
       <c r="T2">
-        <f>S2*(1+($M$6/100))</f>
+        <f t="shared" si="0"/>
         <v>1241.2300628026226</v>
       </c>
       <c r="U2">
-        <f>T2*(1+($M$6/100))</f>
+        <f t="shared" si="0"/>
         <v>1347.2820005985416</v>
       </c>
       <c r="V2">
-        <f>U2*(1+($M$6/100))</f>
+        <f t="shared" si="0"/>
         <v>1462.3951220116817</v>
       </c>
       <c r="W2">
-        <f>V2*(1+($M$6/100))</f>
+        <f t="shared" si="0"/>
         <v>1587.3436236314819</v>
       </c>
       <c r="X2">
-        <f>W2*(1+($M$6/100))</f>
+        <f t="shared" si="0"/>
         <v>1722.9678501781796</v>
       </c>
       <c r="Y2">
-        <f>X2*(1+($M$6/100))</f>
+        <f t="shared" si="0"/>
         <v>1870.1799462652536</v>
       </c>
       <c r="Z2">
-        <f>Y2*(1+($M$6/100))</f>
+        <f t="shared" si="0"/>
         <v>2029.9699910541033</v>
       </c>
       <c r="AA2">
-        <f>Z2*(1+($M$6/100))</f>
+        <f t="shared" si="0"/>
         <v>2203.4126570597573</v>
       </c>
       <c r="AB2">
-        <f>AA2*(1+($M$6/100))</f>
+        <f t="shared" si="0"/>
         <v>2391.6744378916001</v>
       </c>
       <c r="AC2">
-        <f>AB2*(1+($M$6/100))</f>
+        <f t="shared" si="0"/>
         <v>2596.0214935394965</v>
       </c>
       <c r="AD2">
-        <f>AC2*(1+($M$6/100))</f>
+        <f t="shared" si="0"/>
         <v>2817.8281659690051</v>
       </c>
       <c r="AE2">
-        <f>AD2*(1+($M$6/100))</f>
+        <f t="shared" si="0"/>
         <v>3058.5862222975634</v>
       </c>
       <c r="AF2">
-        <f>AE2*(1+($M$6/100))</f>
+        <f t="shared" si="0"/>
         <v>3319.91488771689</v>
       </c>
       <c r="AG2">
-        <f>AF2*(1+($M$6/100))</f>
+        <f t="shared" si="0"/>
         <v>3603.5717356383093</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="F3" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="15.75">
+    <row r="6" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>29</v>
       </c>
@@ -2100,12 +2100,12 @@
         <v>8.5441000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C8" s="9" t="s">
         <v>33</v>
       </c>
@@ -2118,119 +2118,119 @@
         <v>1.6143452017718667</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" ref="F8:AH8" si="0">E8*(1+($M$6/100))</f>
+        <f t="shared" ref="F8:AH8" si="1">E8*(1+($M$6/100))</f>
         <v>1.7522764701564568</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9019927240430947</v>
       </c>
       <c r="H8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.0645008843780608</v>
       </c>
       <c r="I8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.240893904440207</v>
       </c>
       <c r="J8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.4323581205294831</v>
       </c>
       <c r="K8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.6401812307056427</v>
       </c>
       <c r="L8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.8657609552383638</v>
       </c>
       <c r="M8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.1106144370148852</v>
       </c>
       <c r="N8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.3763884451278741</v>
       </c>
       <c r="O8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.6648704502680451</v>
       </c>
       <c r="P8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.9780006464093978</v>
       </c>
       <c r="Q8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.3178849996392632</v>
       </c>
       <c r="R8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.6868094118934422</v>
       </c>
       <c r="S8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.0872550948550304</v>
       </c>
       <c r="T8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.5219152574145394</v>
       </c>
       <c r="U8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.993713218923296</v>
       </c>
       <c r="V8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.5058220700613223</v>
       </c>
       <c r="W8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.0616860135494326</v>
       </c>
       <c r="X8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.6650435282331104</v>
       </c>
       <c r="Y8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.3199525123288769</v>
       </c>
       <c r="Z8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.030817574934769</v>
       </c>
       <c r="AA8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.8024196593547721</v>
       </c>
       <c r="AB8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.639948197469705</v>
       </c>
       <c r="AC8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.549036011409715</v>
       </c>
       <c r="AD8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.535797197260573</v>
       </c>
       <c r="AE8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.606868245591714</v>
       </c>
       <c r="AF8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14.769452675363318</v>
       </c>
       <c r="AG8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16.031369481399036</v>
       </c>
       <c r="AH8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17.401105721259253</v>
       </c>
       <c r="AI8" s="2" t="s">
@@ -2240,7 +2240,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="24">
+    <row r="9" spans="1:36" ht="36.75" x14ac:dyDescent="0.25">
       <c r="C9" s="10" t="s">
         <v>35</v>
       </c>
@@ -2344,17 +2344,17 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="24">
+    <row r="11" spans="1:36" ht="36.75" x14ac:dyDescent="0.25">
       <c r="C11" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="24">
+    <row r="12" spans="1:36" ht="24.75" x14ac:dyDescent="0.25">
       <c r="C12" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
         <v>38</v>
       </c>
@@ -2461,7 +2461,7 @@
         <v>-2.0031E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="60">
+    <row r="14" spans="1:36" ht="75" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>40</v>
       </c>
@@ -2568,7 +2568,7 @@
         <v>-1.3575E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="30">
+    <row r="15" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>42</v>
       </c>
@@ -2675,7 +2675,7 @@
         <v>1.6708000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="45">
+    <row r="16" spans="1:36" ht="75" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
         <v>44</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>2.7220999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:36" ht="30">
+    <row r="17" spans="2:36" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
         <v>46</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>-7.1539999999999998E-3</v>
       </c>
     </row>
-    <row r="18" spans="2:36" ht="30">
+    <row r="18" spans="2:36" ht="45" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
         <v>48</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:36" ht="30">
+    <row r="19" spans="2:36" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="18" t="s">
         <v>50</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>8.5441000000000003E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:36" ht="30">
+    <row r="20" spans="2:36" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
         <v>52</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>1.1962E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:36" ht="45">
+    <row r="21" spans="2:36" ht="60" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
         <v>54</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>3.1888E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:36" ht="75">
+    <row r="22" spans="2:36" ht="90" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
         <v>56</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="2:36">
+    <row r="23" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
         <v>59</v>
       </c>
@@ -3547,12 +3547,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>61</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -3570,7 +3570,7 @@
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>63</v>
       </c>
@@ -3583,7 +3583,7 @@
       <c r="H5" s="28"/>
       <c r="I5" s="29"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="28"/>
       <c r="B6" s="28" t="s">
         <v>64</v>
@@ -3610,7 +3610,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="29">
         <v>2019</v>
       </c>
@@ -3639,7 +3639,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="29">
         <v>2030</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>9.44</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="29">
         <v>2050</v>
       </c>
@@ -3710,14 +3710,14 @@
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.140625" customWidth="1"/>
     <col min="2" max="2" width="45.7109375" customWidth="1"/>
     <col min="38" max="38" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1">
+    <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="9" t="s">
         <v>73</v>
       </c>
@@ -3824,8 +3824,8 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="15" customHeight="1" thickTop="1"/>
-    <row r="3" spans="1:37" ht="15" customHeight="1">
+    <row r="2" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="5" t="s">
         <v>74</v>
       </c>
@@ -3836,7 +3836,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:37" ht="15" customHeight="1">
+    <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="5" t="s">
         <v>76</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="15" customHeight="1">
+    <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="5" t="s">
         <v>79</v>
       </c>
@@ -3860,7 +3860,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:37" ht="15" customHeight="1">
+    <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="5" t="s">
         <v>81</v>
       </c>
@@ -3871,7 +3871,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="10" spans="1:37" ht="15" customHeight="1">
+    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
@@ -3879,12 +3879,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="15" customHeight="1">
+    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="15" customHeight="1">
+    <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
         <v>33</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1">
+    <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>35</v>
       </c>
@@ -4104,18 +4104,18 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="15" customHeight="1" thickTop="1"/>
-    <row r="15" spans="1:37" ht="15" customHeight="1">
+    <row r="14" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="15" customHeight="1">
+    <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="15" customHeight="1">
+    <row r="17" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>38</v>
       </c>
@@ -4228,7 +4228,7 @@
         <v>-1.4527999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="15" customHeight="1">
+    <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>40</v>
       </c>
@@ -4341,7 +4341,7 @@
         <v>-1.2109E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="15" customHeight="1">
+    <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>42</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>2.2502999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:37" ht="15" customHeight="1">
+    <row r="20" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>44</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>8.456E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="15" customHeight="1">
+    <row r="21" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>46</v>
       </c>
@@ -4680,7 +4680,7 @@
         <v>-5.6340000000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="15" customHeight="1">
+    <row r="22" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>48</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:37" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="23" spans="1:37" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>50</v>
       </c>
@@ -4906,7 +4906,7 @@
         <v>0.123014</v>
       </c>
     </row>
-    <row r="24" spans="1:37" ht="15" customHeight="1">
+    <row r="24" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>52</v>
       </c>
@@ -5019,7 +5019,7 @@
         <v>5.8900000000000003E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="15" customHeight="1">
+    <row r="25" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>54</v>
       </c>
@@ -5132,7 +5132,7 @@
         <v>2.3185000000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="15" customHeight="1">
+    <row r="26" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>56</v>
       </c>
@@ -5245,7 +5245,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="15" customHeight="1">
+    <row r="27" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>59</v>
       </c>
@@ -5358,12 +5358,12 @@
         <v>1.1344E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:37" ht="15" customHeight="1">
+    <row r="28" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:37" ht="15" customHeight="1">
+    <row r="29" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>85</v>
       </c>
@@ -5476,7 +5476,7 @@
         <v>-3.3660000000000001E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:37" ht="15" customHeight="1">
+    <row r="30" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>87</v>
       </c>
@@ -5589,7 +5589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:37" ht="15" customHeight="1">
+    <row r="31" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>89</v>
       </c>
@@ -5702,7 +5702,7 @@
         <v>-9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="32" spans="1:37" ht="15" customHeight="1">
+    <row r="32" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>90</v>
       </c>
@@ -5815,7 +5815,7 @@
         <v>-9.68E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="15" customHeight="1">
+    <row r="33" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>91</v>
       </c>
@@ -5928,7 +5928,7 @@
         <v>6.6000000000000005E-5</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="15" customHeight="1">
+    <row r="34" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>92</v>
       </c>
@@ -6041,12 +6041,12 @@
         <v>-4.06E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:37" ht="15" customHeight="1">
+    <row r="36" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="1:37" ht="15" customHeight="1">
+    <row r="37" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>94</v>
       </c>
@@ -6159,7 +6159,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:37" ht="15" customHeight="1">
+    <row r="38" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>95</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:37" ht="15" customHeight="1">
+    <row r="39" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>96</v>
       </c>
@@ -6385,7 +6385,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:37" ht="15" customHeight="1">
+    <row r="40" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>97</v>
       </c>
@@ -6498,7 +6498,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:37" ht="15" customHeight="1">
+    <row r="41" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>98</v>
       </c>
@@ -6611,7 +6611,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:37" ht="15" customHeight="1">
+    <row r="42" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>100</v>
       </c>
@@ -6724,7 +6724,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:37" ht="15" customHeight="1">
+    <row r="43" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>101</v>
       </c>
@@ -6837,7 +6837,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:37" ht="15" customHeight="1">
+    <row r="44" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>102</v>
       </c>
@@ -6950,7 +6950,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:37" ht="15" customHeight="1">
+    <row r="45" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>103</v>
       </c>
@@ -7063,7 +7063,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:37" ht="15" customHeight="1">
+    <row r="46" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>104</v>
       </c>
@@ -7176,7 +7176,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:37" ht="15" customHeight="1">
+    <row r="47" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>106</v>
       </c>
@@ -7289,12 +7289,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:37" ht="15" customHeight="1">
+    <row r="48" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="12" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="49" spans="1:37" ht="15" customHeight="1">
+    <row r="49" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>108</v>
       </c>
@@ -7407,7 +7407,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="1:37" ht="15" customHeight="1">
+    <row r="50" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>109</v>
       </c>
@@ -7520,7 +7520,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="1:37" ht="15" customHeight="1">
+    <row r="51" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>110</v>
       </c>
@@ -7633,7 +7633,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="1:37" ht="15" customHeight="1">
+    <row r="52" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>111</v>
       </c>
@@ -7746,7 +7746,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:37" ht="15" customHeight="1">
+    <row r="53" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>112</v>
       </c>
@@ -7859,7 +7859,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:37" ht="15" customHeight="1">
+    <row r="54" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>113</v>
       </c>
@@ -7972,7 +7972,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="1:37" ht="15" customHeight="1">
+    <row r="55" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>114</v>
       </c>
@@ -8085,7 +8085,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:37" ht="15" customHeight="1">
+    <row r="56" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>115</v>
       </c>
@@ -8198,7 +8198,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:37" ht="15" customHeight="1">
+    <row r="57" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>116</v>
       </c>
@@ -8311,7 +8311,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:37" ht="15" customHeight="1">
+    <row r="58" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>117</v>
       </c>
@@ -8424,7 +8424,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:37" ht="15" customHeight="1">
+    <row r="59" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>118</v>
       </c>
@@ -8537,7 +8537,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:37" ht="15" customHeight="1">
+    <row r="60" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>119</v>
       </c>
@@ -8650,12 +8650,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="1:37" ht="15" customHeight="1">
+    <row r="62" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="63" spans="1:37" ht="15" customHeight="1">
+    <row r="63" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>122</v>
       </c>
@@ -8768,7 +8768,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="1:37" ht="15" customHeight="1">
+    <row r="64" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>123</v>
       </c>
@@ -8881,7 +8881,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="1:37" ht="15" customHeight="1">
+    <row r="65" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>124</v>
       </c>
@@ -8994,7 +8994,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="1:37" ht="15" customHeight="1">
+    <row r="66" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>125</v>
       </c>
@@ -9107,7 +9107,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="67" spans="1:37" ht="15" customHeight="1">
+    <row r="67" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>126</v>
       </c>
@@ -9220,7 +9220,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:37" ht="15" customHeight="1">
+    <row r="68" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>127</v>
       </c>
@@ -9333,7 +9333,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="69" spans="1:37" ht="15" customHeight="1">
+    <row r="69" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>128</v>
       </c>
@@ -9446,7 +9446,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="70" spans="1:37" ht="15" customHeight="1">
+    <row r="70" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>129</v>
       </c>
@@ -9559,7 +9559,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:37" ht="15" customHeight="1">
+    <row r="71" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>130</v>
       </c>
@@ -9672,7 +9672,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="72" spans="1:37" ht="15" customHeight="1">
+    <row r="72" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>131</v>
       </c>
@@ -9785,7 +9785,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="74" spans="1:37" ht="15" customHeight="1">
+    <row r="74" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>132</v>
       </c>
@@ -9898,12 +9898,12 @@
         <v>1.1053E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:37" ht="15" customHeight="1">
+    <row r="76" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="12" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="77" spans="1:37" ht="15" customHeight="1">
+    <row r="77" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>135</v>
       </c>
@@ -10016,7 +10016,7 @@
         <v>-9.3640000000000008E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:37" ht="15" customHeight="1">
+    <row r="78" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>136</v>
       </c>
@@ -10129,7 +10129,7 @@
         <v>-2.039E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:37" ht="15" customHeight="1">
+    <row r="79" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>138</v>
       </c>
@@ -10242,7 +10242,7 @@
         <v>2.5253000000000001E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:37" ht="15" customHeight="1">
+    <row r="80" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>140</v>
       </c>
@@ -10355,7 +10355,7 @@
         <v>-7.0799999999999997E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:37" ht="15" customHeight="1">
+    <row r="81" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>142</v>
       </c>
@@ -10468,7 +10468,7 @@
         <v>6.0502E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:37" ht="15" customHeight="1">
+    <row r="82" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>143</v>
       </c>
@@ -10581,7 +10581,7 @@
         <v>4.0169999999999997E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:37" ht="15" customHeight="1">
+    <row r="83" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>145</v>
       </c>
@@ -10694,7 +10694,7 @@
         <v>4.7788999999999998E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:37" ht="15" customHeight="1">
+    <row r="85" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>146</v>
       </c>
@@ -10807,8 +10807,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="86" spans="1:37" ht="15" customHeight="1" thickBot="1"/>
-    <row r="87" spans="1:37" ht="15" customHeight="1">
+    <row r="86" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="87" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="40" t="s">
         <v>148</v>
       </c>
@@ -10848,137 +10848,137 @@
       <c r="AJ87" s="40"/>
       <c r="AK87" s="40"/>
     </row>
-    <row r="88" spans="1:37" ht="15" customHeight="1">
+    <row r="88" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="7" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="89" spans="1:37" ht="15" customHeight="1">
+    <row r="89" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="7" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="90" spans="1:37" ht="15" customHeight="1">
+    <row r="90" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="7" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="91" spans="1:37" ht="15" customHeight="1">
+    <row r="91" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="92" spans="1:37" ht="15" customHeight="1">
+    <row r="92" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="7" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="93" spans="1:37" ht="15" customHeight="1">
+    <row r="93" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="94" spans="1:37" ht="15" customHeight="1">
+    <row r="94" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="7" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="95" spans="1:37" ht="15" customHeight="1">
+    <row r="95" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="96" spans="1:37" ht="15" customHeight="1">
+    <row r="96" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="7" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="97" spans="2:2" ht="15" customHeight="1">
+    <row r="97" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="7" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="98" spans="2:2" ht="15" customHeight="1">
+    <row r="98" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="7" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="99" spans="2:2" ht="15" customHeight="1">
+    <row r="99" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="7" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="100" spans="2:2" ht="15" customHeight="1">
+    <row r="100" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="7" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="101" spans="2:2" ht="15" customHeight="1">
+    <row r="101" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="7" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="102" spans="2:2" ht="15" customHeight="1">
+    <row r="102" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="103" spans="2:2" ht="15" customHeight="1">
+    <row r="103" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="7" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="104" spans="2:2" ht="15" customHeight="1">
+    <row r="104" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="7" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="105" spans="2:2" ht="15" customHeight="1">
+    <row r="105" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="7" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="106" spans="2:2" ht="15" customHeight="1">
+    <row r="106" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="7" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="107" spans="2:2" ht="15" customHeight="1">
+    <row r="107" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="7" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="108" spans="2:2" ht="15" customHeight="1">
+    <row r="108" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="7" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="109" spans="2:2" ht="15" customHeight="1">
+    <row r="109" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="7" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="110" spans="2:2" ht="15" customHeight="1">
+    <row r="110" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="7" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="111" spans="2:2" ht="15" customHeight="1">
+    <row r="111" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="7" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="112" spans="2:2" ht="15" customHeight="1">
+    <row r="112" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="7" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="113" spans="2:2" ht="15" customHeight="1">
+    <row r="113" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="114" spans="2:2" ht="15" customHeight="1">
+    <row r="114" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="7" t="s">
         <v>175</v>
       </c>
@@ -10995,16 +10995,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{855D1E85-6BFD-42F3-93E9-0EAD143BADB1}">
   <dimension ref="A1:AH43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="4" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C1">
         <v>2019</v>
       </c>
@@ -11102,7 +11102,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>176</v>
       </c>
@@ -11203,7 +11203,7 @@
         <v>48.736428264361834</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B4" s="28" t="s">
         <v>177</v>
       </c>
@@ -11216,7 +11216,7 @@
       <c r="I4" s="28"/>
       <c r="J4" s="29"/>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B5" s="28"/>
       <c r="C5" s="28" t="s">
         <v>64</v>
@@ -11244,7 +11244,7 @@
       </c>
       <c r="K5" s="28"/>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B6" s="29">
         <v>2019</v>
       </c>
@@ -11274,7 +11274,7 @@
       </c>
       <c r="K6" s="29"/>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B7" s="29">
         <v>2030</v>
       </c>
@@ -11303,7 +11303,7 @@
         <v>9.44</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B8" s="29">
         <v>2050</v>
       </c>
@@ -11332,7 +11332,7 @@
         <v>52.34</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -11355,7 +11355,7 @@
       <c r="O10" s="39"/>
       <c r="P10" s="39"/>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -11380,7 +11380,7 @@
       <c r="O11" s="39"/>
       <c r="P11" s="39"/>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -11406,7 +11406,7 @@
       <c r="O12" s="39"/>
       <c r="P12" s="39"/>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2021</v>
       </c>
@@ -11432,7 +11432,7 @@
       <c r="O13" s="39"/>
       <c r="P13" s="39"/>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2022</v>
       </c>
@@ -11458,7 +11458,7 @@
       <c r="O14" s="39"/>
       <c r="P14" s="39"/>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2023</v>
       </c>
@@ -11484,7 +11484,7 @@
       <c r="O15" s="39"/>
       <c r="P15" s="39"/>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2024</v>
       </c>
@@ -11510,7 +11510,7 @@
       <c r="O16" s="39"/>
       <c r="P16" s="39"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2025</v>
       </c>
@@ -11536,7 +11536,7 @@
       <c r="O17" s="39"/>
       <c r="P17" s="39"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2026</v>
       </c>
@@ -11562,7 +11562,7 @@
       <c r="O18" s="39"/>
       <c r="P18" s="39"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2027</v>
       </c>
@@ -11588,7 +11588,7 @@
       <c r="O19" s="39"/>
       <c r="P19" s="39"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2028</v>
       </c>
@@ -11614,7 +11614,7 @@
       <c r="O20" s="39"/>
       <c r="P20" s="39"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2029</v>
       </c>
@@ -11640,7 +11640,7 @@
       <c r="O21" s="39"/>
       <c r="P21" s="39"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2030</v>
       </c>
@@ -11665,7 +11665,7 @@
       <c r="O22" s="39"/>
       <c r="P22" s="39"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2031</v>
       </c>
@@ -11691,7 +11691,7 @@
       <c r="O23" s="39"/>
       <c r="P23" s="39"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2032</v>
       </c>
@@ -11717,7 +11717,7 @@
       <c r="O24" s="39"/>
       <c r="P24" s="39"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2033</v>
       </c>
@@ -11743,7 +11743,7 @@
       <c r="O25" s="39"/>
       <c r="P25" s="39"/>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2034</v>
       </c>
@@ -11769,7 +11769,7 @@
       <c r="O26" s="39"/>
       <c r="P26" s="39"/>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2035</v>
       </c>
@@ -11795,7 +11795,7 @@
       <c r="O27" s="39"/>
       <c r="P27" s="39"/>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2036</v>
       </c>
@@ -11821,7 +11821,7 @@
       <c r="O28" s="39"/>
       <c r="P28" s="39"/>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2037</v>
       </c>
@@ -11847,7 +11847,7 @@
       <c r="O29" s="39"/>
       <c r="P29" s="39"/>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2038</v>
       </c>
@@ -11873,7 +11873,7 @@
       <c r="O30" s="39"/>
       <c r="P30" s="39"/>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2039</v>
       </c>
@@ -11899,7 +11899,7 @@
       <c r="O31" s="39"/>
       <c r="P31" s="39"/>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2040</v>
       </c>
@@ -11925,7 +11925,7 @@
       <c r="O32" s="39"/>
       <c r="P32" s="39"/>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2041</v>
       </c>
@@ -11951,7 +11951,7 @@
       <c r="O33" s="39"/>
       <c r="P33" s="39"/>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2042</v>
       </c>
@@ -11977,7 +11977,7 @@
       <c r="O34" s="39"/>
       <c r="P34" s="39"/>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2043</v>
       </c>
@@ -12003,7 +12003,7 @@
       <c r="O35" s="39"/>
       <c r="P35" s="39"/>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2044</v>
       </c>
@@ -12029,7 +12029,7 @@
       <c r="O36" s="39"/>
       <c r="P36" s="39"/>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2045</v>
       </c>
@@ -12055,7 +12055,7 @@
       <c r="O37" s="39"/>
       <c r="P37" s="39"/>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2046</v>
       </c>
@@ -12081,7 +12081,7 @@
       <c r="O38" s="39"/>
       <c r="P38" s="39"/>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2047</v>
       </c>
@@ -12107,7 +12107,7 @@
       <c r="O39" s="39"/>
       <c r="P39" s="39"/>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2048</v>
       </c>
@@ -12133,7 +12133,7 @@
       <c r="O40" s="39"/>
       <c r="P40" s="39"/>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2049</v>
       </c>
@@ -12159,7 +12159,7 @@
       <c r="O41" s="39"/>
       <c r="P41" s="39"/>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2050</v>
       </c>
@@ -12183,7 +12183,7 @@
       <c r="O42" s="39"/>
       <c r="P42" s="39"/>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="L43" s="39"/>
       <c r="M43" s="39"/>
       <c r="N43" s="39"/>
@@ -12200,240 +12200,247 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.140625" customWidth="1"/>
+    <col min="1" max="2" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="8">
+        <v>2019</v>
+      </c>
+      <c r="C1">
         <v>2020</v>
       </c>
-      <c r="C1">
+      <c r="D1">
         <v>2021</v>
       </c>
-      <c r="D1">
+      <c r="E1">
         <v>2022</v>
       </c>
-      <c r="E1">
+      <c r="F1">
         <v>2023</v>
       </c>
-      <c r="F1">
+      <c r="G1">
         <v>2024</v>
       </c>
-      <c r="G1">
+      <c r="H1">
         <v>2025</v>
       </c>
-      <c r="H1">
+      <c r="I1">
         <v>2026</v>
       </c>
-      <c r="I1">
+      <c r="J1">
         <v>2027</v>
       </c>
-      <c r="J1">
+      <c r="K1">
         <v>2028</v>
       </c>
-      <c r="K1">
+      <c r="L1">
         <v>2029</v>
       </c>
-      <c r="L1">
+      <c r="M1">
         <v>2030</v>
       </c>
-      <c r="M1">
+      <c r="N1">
         <v>2031</v>
       </c>
-      <c r="N1">
+      <c r="O1">
         <v>2032</v>
       </c>
-      <c r="O1">
+      <c r="P1">
         <v>2033</v>
       </c>
-      <c r="P1">
+      <c r="Q1">
         <v>2034</v>
       </c>
-      <c r="Q1">
+      <c r="R1">
         <v>2035</v>
       </c>
-      <c r="R1">
+      <c r="S1">
         <v>2036</v>
       </c>
-      <c r="S1">
+      <c r="T1">
         <v>2037</v>
       </c>
-      <c r="T1">
+      <c r="U1">
         <v>2038</v>
       </c>
-      <c r="U1">
+      <c r="V1">
         <v>2039</v>
       </c>
-      <c r="V1">
+      <c r="W1">
         <v>2040</v>
       </c>
-      <c r="W1">
+      <c r="X1">
         <v>2041</v>
       </c>
-      <c r="X1">
+      <c r="Y1">
         <v>2042</v>
       </c>
-      <c r="Y1">
+      <c r="Z1">
         <v>2043</v>
       </c>
-      <c r="Z1">
+      <c r="AA1">
         <v>2044</v>
       </c>
-      <c r="AA1">
+      <c r="AB1">
         <v>2045</v>
       </c>
-      <c r="AB1">
+      <c r="AC1">
         <v>2046</v>
       </c>
-      <c r="AC1">
+      <c r="AD1">
         <v>2047</v>
       </c>
-      <c r="AD1">
+      <c r="AE1">
         <v>2048</v>
       </c>
-      <c r="AE1">
+      <c r="AF1">
         <v>2049</v>
       </c>
-      <c r="AF1">
+      <c r="AG1">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="4">
+        <f>SYGBSC!B2</f>
+        <v>10</v>
+      </c>
+      <c r="C2" s="4">
         <f>'Grid Battery Storage Capacity'!C2</f>
         <v>10.854410000000001</v>
       </c>
-      <c r="C2" s="4">
+      <c r="D2" s="4">
         <f>'Grid Battery Storage Capacity'!D2</f>
         <v>11.781821644810003</v>
       </c>
-      <c r="D2" s="4">
+      <c r="E2" s="4">
         <f>'Grid Battery Storage Capacity'!E2</f>
         <v>12.788472267964217</v>
       </c>
-      <c r="E2" s="4">
+      <c r="F2" s="4">
         <f>'Grid Battery Storage Capacity'!F2</f>
         <v>393.88113212701137</v>
       </c>
-      <c r="F2" s="4">
+      <c r="G2" s="4">
         <f>'Grid Battery Storage Capacity'!G2</f>
         <v>427.53472993707538</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="4">
         <f>'Grid Battery Storage Capacity'!H2</f>
         <v>464.06372479762911</v>
       </c>
-      <c r="H2" s="4">
+      <c r="I2" s="4">
         <f>'Grid Battery Storage Capacity'!I2</f>
         <v>503.71379350806336</v>
       </c>
-      <c r="I2" s="4">
+      <c r="J2" s="4">
         <f>'Grid Battery Storage Capacity'!J2</f>
         <v>546.75160373918584</v>
       </c>
-      <c r="J2" s="4">
+      <c r="K2" s="4">
         <f>'Grid Battery Storage Capacity'!K2</f>
         <v>593.46660751426566</v>
       </c>
-      <c r="K2" s="4">
+      <c r="L2" s="4">
         <f>'Grid Battery Storage Capacity'!L2</f>
         <v>644.17298792689212</v>
       </c>
-      <c r="L2" s="4">
+      <c r="M2" s="4">
         <f>'Grid Battery Storage Capacity'!M2</f>
         <v>699.21177218835373</v>
       </c>
-      <c r="M2" s="4">
+      <c r="N2" s="4">
         <f>'Grid Battery Storage Capacity'!N2</f>
         <v>758.95312521589892</v>
       </c>
-      <c r="N2" s="4">
+      <c r="O2" s="4">
         <f>'Grid Battery Storage Capacity'!O2</f>
         <v>823.79883918747066</v>
       </c>
-      <c r="O2" s="4">
+      <c r="P2" s="4">
         <f>'Grid Battery Storage Capacity'!P2</f>
         <v>894.18503580648746</v>
       </c>
-      <c r="P2" s="4">
+      <c r="Q2" s="4">
         <f>'Grid Battery Storage Capacity'!Q2</f>
         <v>970.5850994508296</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="R2" s="4">
         <f>'Grid Battery Storage Capacity'!R2</f>
         <v>1053.5128609330081</v>
       </c>
-      <c r="R2" s="4">
+      <c r="S2" s="4">
         <f>'Grid Battery Storage Capacity'!S2</f>
         <v>1143.5260532839854</v>
       </c>
-      <c r="S2" s="4">
+      <c r="T2" s="4">
         <f>'Grid Battery Storage Capacity'!T2</f>
         <v>1241.2300628026226</v>
       </c>
-      <c r="T2" s="4">
+      <c r="U2" s="4">
         <f>'Grid Battery Storage Capacity'!U2</f>
         <v>1347.2820005985416</v>
       </c>
-      <c r="U2" s="4">
+      <c r="V2" s="4">
         <f>'Grid Battery Storage Capacity'!V2</f>
         <v>1462.3951220116817</v>
       </c>
-      <c r="V2" s="4">
+      <c r="W2" s="4">
         <f>'Grid Battery Storage Capacity'!W2</f>
         <v>1587.3436236314819</v>
       </c>
-      <c r="W2" s="4">
+      <c r="X2" s="4">
         <f>'Grid Battery Storage Capacity'!X2</f>
         <v>1722.9678501781796</v>
       </c>
-      <c r="X2" s="4">
+      <c r="Y2" s="4">
         <f>'Grid Battery Storage Capacity'!Y2</f>
         <v>1870.1799462652536</v>
       </c>
-      <c r="Y2" s="4">
+      <c r="Z2" s="4">
         <f>'Grid Battery Storage Capacity'!Z2</f>
         <v>2029.9699910541033</v>
       </c>
-      <c r="Z2" s="4">
+      <c r="AA2" s="4">
         <f>'Grid Battery Storage Capacity'!AA2</f>
         <v>2203.4126570597573</v>
       </c>
-      <c r="AA2" s="4">
+      <c r="AB2" s="4">
         <f>'Grid Battery Storage Capacity'!AB2</f>
         <v>2391.6744378916001</v>
       </c>
-      <c r="AB2" s="4">
+      <c r="AC2" s="4">
         <f>'Grid Battery Storage Capacity'!AC2</f>
         <v>2596.0214935394965</v>
       </c>
-      <c r="AC2" s="4">
+      <c r="AD2" s="4">
         <f>'Grid Battery Storage Capacity'!AD2</f>
         <v>2817.8281659690051</v>
       </c>
-      <c r="AD2" s="4">
+      <c r="AE2" s="4">
         <f>'Grid Battery Storage Capacity'!AE2</f>
         <v>3058.5862222975634</v>
       </c>
-      <c r="AE2" s="4">
+      <c r="AF2" s="4">
         <f>'Grid Battery Storage Capacity'!AF2</f>
         <v>3319.91488771689</v>
       </c>
-      <c r="AF2" s="4">
+      <c r="AG2" s="4">
         <f>'Grid Battery Storage Capacity'!AG2</f>
         <v>3603.5717356383093</v>
       </c>
@@ -12449,241 +12456,247 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.140625" customWidth="1"/>
-    <col min="2" max="32" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="47.140625" customWidth="1"/>
+    <col min="3" max="33" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="8">
+        <v>2019</v>
+      </c>
+      <c r="C1">
         <v>2020</v>
       </c>
-      <c r="C1">
+      <c r="D1">
         <v>2021</v>
       </c>
-      <c r="D1">
+      <c r="E1">
         <v>2022</v>
       </c>
-      <c r="E1">
+      <c r="F1">
         <v>2023</v>
       </c>
-      <c r="F1">
+      <c r="G1">
         <v>2024</v>
       </c>
-      <c r="G1">
+      <c r="H1">
         <v>2025</v>
       </c>
-      <c r="H1">
+      <c r="I1">
         <v>2026</v>
       </c>
-      <c r="I1">
+      <c r="J1">
         <v>2027</v>
       </c>
-      <c r="J1">
+      <c r="K1">
         <v>2028</v>
       </c>
-      <c r="K1">
+      <c r="L1">
         <v>2029</v>
       </c>
-      <c r="L1">
+      <c r="M1">
         <v>2030</v>
       </c>
-      <c r="M1">
+      <c r="N1">
         <v>2031</v>
       </c>
-      <c r="N1">
+      <c r="O1">
         <v>2032</v>
       </c>
-      <c r="O1">
+      <c r="P1">
         <v>2033</v>
       </c>
-      <c r="P1">
+      <c r="Q1">
         <v>2034</v>
       </c>
-      <c r="Q1">
+      <c r="R1">
         <v>2035</v>
       </c>
-      <c r="R1">
+      <c r="S1">
         <v>2036</v>
       </c>
-      <c r="S1">
+      <c r="T1">
         <v>2037</v>
       </c>
-      <c r="T1">
+      <c r="U1">
         <v>2038</v>
       </c>
-      <c r="U1">
+      <c r="V1">
         <v>2039</v>
       </c>
-      <c r="V1">
+      <c r="W1">
         <v>2040</v>
       </c>
-      <c r="W1">
+      <c r="X1">
         <v>2041</v>
       </c>
-      <c r="X1">
+      <c r="Y1">
         <v>2042</v>
       </c>
-      <c r="Y1">
+      <c r="Z1">
         <v>2043</v>
       </c>
-      <c r="Z1">
+      <c r="AA1">
         <v>2044</v>
       </c>
-      <c r="AA1">
+      <c r="AB1">
         <v>2045</v>
       </c>
-      <c r="AB1">
+      <c r="AC1">
         <v>2046</v>
       </c>
-      <c r="AC1">
+      <c r="AD1">
         <v>2047</v>
       </c>
-      <c r="AD1">
+      <c r="AE1">
         <v>2048</v>
       </c>
-      <c r="AE1">
+      <c r="AF1">
         <v>2049</v>
       </c>
-      <c r="AF1">
+      <c r="AG1">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>181</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
         <f>'Potential Additional Battery St'!D2*1000</f>
         <v>856.41831727262058</v>
       </c>
-      <c r="C2" s="4">
+      <c r="D2" s="4">
         <f>'Potential Additional Battery St'!E2*1000</f>
         <v>1712.7636329004404</v>
       </c>
-      <c r="D2" s="4">
+      <c r="E2" s="4">
         <f>'Potential Additional Battery St'!F2*1000</f>
         <v>2569.0297095501433</v>
       </c>
-      <c r="E2" s="4">
+      <c r="F2" s="4">
         <f>'Potential Additional Battery St'!G2*1000</f>
         <v>3045.2097769637257</v>
       </c>
-      <c r="F2" s="4">
+      <c r="G2" s="4">
         <f>'Potential Additional Battery St'!H2*1000</f>
         <v>3868.8289064265191</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="4">
         <f>'Potential Additional Battery St'!I2*1000</f>
         <v>4689.5726388385947</v>
       </c>
-      <c r="H2" s="4">
+      <c r="I2" s="4">
         <f>'Potential Additional Battery St'!J2*1000</f>
         <v>5507.1952974010183</v>
       </c>
-      <c r="I2" s="4">
+      <c r="J2" s="4">
         <f>'Potential Additional Battery St'!K2*1000</f>
         <v>6321.4302144425246</v>
       </c>
-      <c r="J2" s="4">
+      <c r="K2" s="4">
         <f>'Potential Additional Battery St'!L2*1000</f>
         <v>7131.9879379400745</v>
       </c>
-      <c r="K2" s="4">
+      <c r="L2" s="4">
         <f>'Potential Additional Battery St'!M2*1000</f>
         <v>7938.5542848003051</v>
       </c>
-      <c r="L2" s="4">
+      <c r="M2" s="4">
         <f>'Potential Additional Battery St'!N2*1000</f>
         <v>8740.7882278116449</v>
       </c>
-      <c r="M2" s="4">
+      <c r="N2" s="4">
         <f>'Potential Additional Battery St'!O2*1000</f>
         <v>10826.046874784137</v>
       </c>
-      <c r="N2" s="4">
+      <c r="O2" s="4">
         <f>'Potential Additional Battery St'!P2*1000</f>
         <v>12906.201160813001</v>
       </c>
-      <c r="O2" s="4">
+      <c r="P2" s="4">
         <f>'Potential Additional Battery St'!Q2*1000</f>
         <v>14980.814964193512</v>
       </c>
-      <c r="P2" s="4">
+      <c r="Q2" s="4">
         <f>'Potential Additional Battery St'!R2*1000</f>
         <v>17049.414900549607</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="R2" s="4">
         <f>'Potential Additional Battery St'!S2*1000</f>
         <v>19111.487139066954</v>
       </c>
-      <c r="R2" s="4">
+      <c r="S2" s="4">
         <f>'Potential Additional Battery St'!T2*1000</f>
         <v>21166.473946716415</v>
       </c>
-      <c r="S2" s="4">
+      <c r="T2" s="4">
         <f>'Potential Additional Battery St'!U2*1000</f>
         <v>23213.769937197307</v>
       </c>
-      <c r="T2" s="4">
+      <c r="U2" s="4">
         <f>'Potential Additional Battery St'!V2*1000</f>
         <v>25252.717999401822</v>
       </c>
-      <c r="U2" s="4">
+      <c r="V2" s="4">
         <f>'Potential Additional Battery St'!W2*1000</f>
         <v>27282.604877988208</v>
       </c>
-      <c r="V2" s="4">
+      <c r="W2" s="4">
         <f>'Potential Additional Battery St'!X2*1000</f>
         <v>29302.656376368843</v>
       </c>
-      <c r="W2" s="4">
+      <c r="X2" s="4">
         <f>'Potential Additional Battery St'!Y2*1000</f>
         <v>31312.032149821676</v>
       </c>
-      <c r="X2" s="4">
+      <c r="Y2" s="4">
         <f>'Potential Additional Battery St'!Z2*1000</f>
         <v>33309.820053735035</v>
       </c>
-      <c r="Y2" s="4">
+      <c r="Z2" s="4">
         <f>'Potential Additional Battery St'!AA2*1000</f>
         <v>35295.030008945716</v>
       </c>
-      <c r="Z2" s="4">
+      <c r="AA2" s="4">
         <f>'Potential Additional Battery St'!AB2*1000</f>
         <v>37266.587342940496</v>
       </c>
-      <c r="AA2" s="4">
+      <c r="AB2" s="4">
         <f>'Potential Additional Battery St'!AC2*1000</f>
         <v>39223.325562108177</v>
       </c>
-      <c r="AB2" s="4">
+      <c r="AC2" s="4">
         <f>'Potential Additional Battery St'!AD2*1000</f>
         <v>41163.97850646072</v>
       </c>
-      <c r="AC2" s="4">
+      <c r="AD2" s="4">
         <f>'Potential Additional Battery St'!AE2*1000</f>
         <v>43087.171834030742</v>
       </c>
-      <c r="AD2" s="4">
+      <c r="AE2" s="4">
         <f>'Potential Additional Battery St'!AF2*1000</f>
         <v>44991.413777702619</v>
       </c>
-      <c r="AE2" s="4">
+      <c r="AF2" s="4">
         <f>'Potential Additional Battery St'!AG2*1000</f>
         <v>46875.085112283727</v>
       </c>
-      <c r="AF2" s="4">
+      <c r="AG2" s="4">
         <f>'Potential Additional Battery St'!AH2*1000</f>
         <v>48736.428264361835</v>
       </c>
@@ -12705,13 +12718,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>180</v>
       </c>
@@ -12719,7 +12732,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>183</v>
       </c>
@@ -12728,7 +12741,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
     </row>
   </sheetData>
@@ -12738,15 +12751,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
@@ -12764,6 +12768,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13027,13 +13040,40 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEA2EF77-033E-4309-95C6-F7DCBA5F4C30}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{875788A9-29C3-4A9D-A5A8-647EF20EA3CD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{875788A9-29C3-4A9D-A5A8-647EF20EA3CD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEA2EF77-033E-4309-95C6-F7DCBA5F4C30}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DF447DF-60AF-41FE-ACD2-09D2AAA60CDB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DF447DF-60AF-41FE-ACD2-09D2AAA60CDB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
+    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/InputData/elec/GBSC/Grid Battery Storage Capacities.xlsx
+++ b/InputData/elec/GBSC/Grid Battery Storage Capacities.xlsx
@@ -12780,8 +12780,8 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdee17017a9ad5b872047a216f95da93">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37825e9edfcb807d863c63152c6d8635" ns2:_="" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b14dc5c440242a7f7d08dacad5c84df8">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="71a713f9ca42e4f2f02aa83a9b465f65" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
     <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
     <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
@@ -12807,6 +12807,7 @@
                 <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -12907,6 +12908,11 @@
     <xsd:element name="MediaServiceDateTaken" ma:index="27" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="28" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -13059,21 +13065,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DF447DF-60AF-41FE-ACD2-09D2AAA60CDB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
-    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
-    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2682E04B-E619-4043-8A69-34D6A2ECA57C}"/>
 </file>